--- a/Publicaciones.xlsx
+++ b/Publicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestría en Ciencias Físicas\Asignaturas\Análisis de datos con Python 2021-2022\Proyecto final\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3A0045-C9F8-4B14-8CD4-8EAEF527CA4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A03C0E-3837-42CA-A52D-2657D06B9D04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2017" sheetId="5" r:id="rId3"/>
     <sheet name="2018" sheetId="6" r:id="rId4"/>
     <sheet name="2019" sheetId="7" r:id="rId5"/>
-    <sheet name="Listado" sheetId="9" r:id="rId6"/>
+    <sheet name="Listado" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -8541,23 +8541,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53D0DCC-EACB-4ACE-A045-B8DAF86DBCA9}">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7CC-5EF6-45F3-B169-C092E953762B}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8596,9 +8596,8 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8617,9 +8616,8 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8638,9 +8636,8 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8659,9 +8656,8 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8680,9 +8676,8 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8701,9 +8696,8 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8722,9 +8716,8 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8743,9 +8736,8 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8764,9 +8756,8 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8785,9 +8776,8 @@
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8806,9 +8796,8 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8827,9 +8816,8 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8848,9 +8836,8 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8869,9 +8856,8 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8890,9 +8876,8 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8911,9 +8896,8 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8932,9 +8916,8 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8953,9 +8936,8 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8974,9 +8956,8 @@
       <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8995,9 +8976,8 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9016,9 +8996,8 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9037,9 +9016,8 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9058,9 +9036,8 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9079,9 +9056,8 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9100,9 +9076,8 @@
       <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9121,9 +9096,8 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9142,9 +9116,8 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9163,9 +9136,8 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9184,9 +9156,8 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9205,9 +9176,8 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9226,9 +9196,8 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9247,9 +9216,8 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9268,9 +9236,8 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9289,9 +9256,8 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9310,9 +9276,8 @@
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9331,9 +9296,8 @@
       <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9352,9 +9316,8 @@
       <c r="F38" s="4">
         <v>2</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9374,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9394,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9414,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9435,9 +9398,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F41">
-    <sortCondition ref="B41"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Publicaciones.xlsx
+++ b/Publicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestría en Ciencias Físicas\Asignaturas\Análisis de datos con Python 2021-2022\Proyecto final\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A03C0E-3837-42CA-A52D-2657D06B9D04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE3A37-FCA6-4E99-B3D8-15220DDC05AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8542,10 +8542,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7CC-5EF6-45F3-B169-C092E953762B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,9 +8555,10 @@
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
@@ -8576,8 +8577,23 @@
       <c r="F1" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8617,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8637,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8657,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8677,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8697,7 +8713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8717,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8737,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8757,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8777,7 +8793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8797,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8817,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8837,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8857,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Publicaciones.xlsx
+++ b/Publicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestría en Ciencias Físicas\Asignaturas\Análisis de datos con Python 2021-2022\Proyecto final\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE3A37-FCA6-4E99-B3D8-15220DDC05AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B48DEE-F232-4513-861E-C6C5CA2C7209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8542,10 +8542,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7CC-5EF6-45F3-B169-C092E953762B}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,10 +8555,9 @@
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
@@ -8577,23 +8576,8 @@
       <c r="F1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8613,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8633,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8653,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8673,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8693,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8713,7 +8697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8733,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8753,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8773,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8793,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8813,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8833,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8853,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8873,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
